--- a/data/param_tuning/Dataset4/kmer_size_test.xlsx
+++ b/data/param_tuning/Dataset4/kmer_size_test.xlsx
@@ -456,1056 +456,1056 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5629</t>
+          <t>0.3592</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5461</t>
+          <t>0.4078</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5283</t>
+          <t>0.3657</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8192</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5591</t>
+          <t>0.3061</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5223</t>
+          <t>0.3778</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.3104</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7882</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5775</t>
+          <t>0.3173</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5411</t>
+          <t>0.3582</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.5405</t>
+          <t>0.3171</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>0.7439</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.5424</t>
+          <t>0.2755</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.5345</t>
+          <t>0.3067</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5135</t>
+          <t>0.2665</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.4968</t>
+          <t>0.3003</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.4985</t>
+          <t>0.3847</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.4859</t>
+          <t>0.313</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8192</t>
+          <t>0.7378</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.5493</t>
+          <t>0.3286</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.523</t>
+          <t>0.3661</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.5169</t>
+          <t>0.3277</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.4955</t>
+          <t>0.3844</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.5447</t>
+          <t>0.4172</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.4942</t>
+          <t>0.3676</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.7378</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.6357</t>
+          <t>0.3284</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.6007</t>
+          <t>0.4275</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.5752</t>
+          <t>0.3294</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[1, 2, 3]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7934</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.5621</t>
+          <t>0.2827</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.5409</t>
+          <t>0.3297</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.5103</t>
+          <t>0.2755</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8221</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.5029</t>
+          <t>0.297</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.4848</t>
+          <t>0.3362</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.4744</t>
+          <t>0.2882</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.5704</t>
+          <t>0.2788</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.5113</t>
+          <t>0.3173</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.5096</t>
+          <t>0.2763</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1, 2, 5]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.7882</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.5749</t>
+          <t>0.2865</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.5668</t>
+          <t>0.3288</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.5324</t>
+          <t>0.2858</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.8089</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.5469</t>
+          <t>0.3187</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.5351</t>
+          <t>0.3508</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.5026</t>
+          <t>0.3091</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8185</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.5294</t>
+          <t>0.341</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.4728</t>
+          <t>0.3762</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.4798</t>
+          <t>0.3133</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.7852</t>
+          <t>0.7317</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.5448</t>
+          <t>0.3031</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.5411</t>
+          <t>0.4108</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.5128</t>
+          <t>0.313</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.7742</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.5439</t>
+          <t>0.257</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.4893</t>
+          <t>0.2974</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.4763</t>
+          <t>0.2489</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.7948</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.5498</t>
+          <t>0.3508</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.5006</t>
+          <t>0.3937</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.4806</t>
+          <t>0.3514</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.7764</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.5348</t>
+          <t>0.309</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.4856</t>
+          <t>0.4089</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.4773</t>
+          <t>0.3258</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[1, 3, 5]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.8162</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.5658</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.5253</t>
+          <t>0.373</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.5213</t>
+          <t>0.349</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[1, 2, 5]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.5598</t>
+          <t>0.286</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.5313</t>
+          <t>0.3287</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.5024</t>
+          <t>0.2861</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.7941</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.537</t>
+          <t>0.4035</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.5034</t>
+          <t>0.4355</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.4961</t>
+          <t>0.3843</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.5323</t>
+          <t>0.2707</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.5179</t>
+          <t>0.2908</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.5088</t>
+          <t>0.2695</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8192</t>
+          <t>0.7439</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.5622</t>
+          <t>0.3898</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.5107</t>
+          <t>0.4394</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.5133</t>
+          <t>0.3619</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7882</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.5119</t>
+          <t>0.2911</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.5039</t>
+          <t>0.3237</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.4875</t>
+          <t>0.2831</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.7786</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.4986</t>
+          <t>0.3476</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.4494</t>
+          <t>0.4559</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.4477</t>
+          <t>0.3658</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.8111</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.6041</t>
+          <t>0.3476</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.5472</t>
+          <t>0.3939</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.5407</t>
+          <t>0.3404</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1, 3, 5]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.7845</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.5106</t>
+          <t>0.3532</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.5516</t>
+          <t>0.4207</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.5182</t>
+          <t>0.3337</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7601</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.524</t>
+          <t>0.3033</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.4958</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.4825</t>
+          <t>0.3065</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.519</t>
+          <t>0.3036</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.4932</t>
+          <t>0.3964</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.3186</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.6579</t>
+          <t>0.3026</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.5398</t>
+          <t>0.3884</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.5561</t>
+          <t>0.3152</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.8052</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.5607</t>
+          <t>0.2859</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.5257</t>
+          <t>0.3244</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.5205</t>
+          <t>0.2783</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.7993</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.6077</t>
+          <t>0.4086</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.5148</t>
+          <t>0.4355</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.5391</t>
+          <t>0.3972</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.6468</t>
+          <t>0.3525</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.5464</t>
+          <t>0.3667</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.5667</t>
+          <t>0.3299</t>
         </is>
       </c>
     </row>
@@ -1517,155 +1517,155 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[1, 2, 3]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8185</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.6033</t>
+          <t>0.2627</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.5527</t>
+          <t>0.2857</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.5477</t>
+          <t>0.2425</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.5489</t>
+          <t>0.2785</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.5236</t>
+          <t>0.3847</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.5044</t>
+          <t>0.2912</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8052</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.5638</t>
+          <t>0.3052</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.536</t>
+          <t>0.3437</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>0.3021</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[1, 3, 5]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.8007</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.5978</t>
+          <t>0.3973</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.5802</t>
+          <t>0.4501</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.5556</t>
+          <t>0.3981</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.7424</t>
+          <t>0.7561</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.5008</t>
+          <t>0.3315</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.504</t>
+          <t>0.3903</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.4831</t>
+          <t>0.3364</t>
         </is>
       </c>
     </row>
@@ -1677,379 +1677,379 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.817</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.5995</t>
+          <t>0.3422</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.5463</t>
+          <t>0.4035</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.5496</t>
+          <t>0.3443</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.5676</t>
+          <t>0.279</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.5111</t>
+          <t>0.3037</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.5186</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[1, 2, 5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.7779</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.5051</t>
+          <t>0.3149</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.5077</t>
+          <t>0.3347</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.4775</t>
+          <t>0.2997</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.7882</t>
+          <t>0.8232</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.5985</t>
+          <t>0.4138</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.5674</t>
+          <t>0.4573</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.5621</t>
+          <t>0.416</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.7668</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.5716</t>
+          <t>0.3095</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.5294</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.5262</t>
+          <t>0.3093</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.8096</t>
+          <t>0.7439</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.5618</t>
+          <t>0.2825</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.5755</t>
+          <t>0.292</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.5447</t>
+          <t>0.2709</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.8007</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.5991</t>
+          <t>0.3057</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.5803</t>
+          <t>0.3818</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.5722</t>
+          <t>0.3109</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.8049</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.5478</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.572</t>
+          <t>0.4425</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.5423</t>
+          <t>0.3765</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.8207</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.5524</t>
+          <t>0.3625</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.4976</t>
+          <t>0.4442</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.4974</t>
+          <t>0.3658</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>[1, 5]</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>[1, 5]</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.8118</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.5119</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.5156</t>
+          <t>0.2683</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.4974</t>
+          <t>0.2465</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>[1, 2, 3]</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>[3, 5]</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>[2, 3]</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.828</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.5202</t>
+          <t>0.2886</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.496</t>
+          <t>0.3445</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.4994</t>
+          <t>0.2944</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.7823</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.5082</t>
+          <t>0.2789</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.3272</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.468</t>
+          <t>0.2696</t>
         </is>
       </c>
     </row>
